--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817907.753781799</v>
+        <v>1815655.674070592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629558</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.9049854834715</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.0414190854971</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.9571464892294</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>324.6487522225607</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>209.3584761600174</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>21.88617166826027</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580868</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.03063761899512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042228</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>122.8704329402515</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650395</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.354216290388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>116.9020714724189</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>112.5005260950196</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105662</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362941</v>
       </c>
       <c r="V40" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883008</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>3072.075344883008</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>817.0352339990393</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>817.0352339990393</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>810.0897332498358</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.982617026599</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1485.020100086187</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1126.754401479436</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>740.9661488811921</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>734.0206481319887</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2240.58245709072</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>858.1169920527758</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,22 +5057,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>639.6425904082687</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>470.7064074803617</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2322.851535155764</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2103.250070178706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1814.174843522904</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1559.490355317017</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1042.083634382039</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>821.2910552385084</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2328.88018310307</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2266.280484787188</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7731,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>28.00274033431297</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.15585306139306</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823282</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>62.35543909864916</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182133</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>64.12421452922568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.52575990662497</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415286</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459491</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345295005</v>
       </c>
       <c r="V40" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813246</v>
@@ -26442,19 +26442,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.614688727</v>
+        <v>-972219.6146887268</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388656</v>
+        <v>356525.1310388659</v>
       </c>
       <c r="D6" t="n">
-        <v>356525.1310388659</v>
+        <v>356525.1310388658</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727107</v>
+        <v>107697.1369472749</v>
       </c>
       <c r="F6" t="n">
-        <v>433144.3366800656</v>
+        <v>433109.5987546301</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.59875463</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.3366800658</v>
+        <v>433109.59875463</v>
       </c>
       <c r="J6" t="n">
-        <v>215613.1342827884</v>
+        <v>215578.3963573524</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="L6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.59875463</v>
       </c>
       <c r="M6" t="n">
-        <v>348089.3087445537</v>
+        <v>348054.570819118</v>
       </c>
       <c r="N6" t="n">
-        <v>433144.3366800657</v>
+        <v>433109.5987546301</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800654</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800654</v>
+        <v>433109.5987546297</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577272</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.33295317258205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.1704191201158</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422401</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>86.2729734308927</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>76.85336204559547</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>264.6368266683307</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
